--- a/biology/Botanique/Arundinaria/Arundinaria.xlsx
+++ b/biology/Botanique/Arundinaria/Arundinaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arundinaria  est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, qui regroupe trois espèces originaire d'Amérique du Nord.
 La question de savoir quelles espèces de bambous devraient être incluses dans le genre Arundinaria a été longtemps débattue. Certains auteurs soutiennent que seules les espèces nord-américaines devraient être incluses, tandis que d'autres veulent y inclure  des espèces asiatiques classées par ailleurs dans d'autres genres tels que Bashania, Oligostachyum, Sarocalamus, Fargesia, Sasa, etc.
@@ -512,10 +524,12 @@
           <t>Espèces acceptées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Trois espèces seulement, indigènes d'Amérique du Nord, sont reconnues dans le genre Arundinaria (stricto sensu) et recensées dans la World Checklist of Selected Plant Families[2].
-Selon World Checklist of Selected Plant Families (WCSP)  (6 juin 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Trois espèces seulement, indigènes d'Amérique du Nord, sont reconnues dans le genre Arundinaria (stricto sensu) et recensées dans la World Checklist of Selected Plant Families.
+Selon World Checklist of Selected Plant Families (WCSP)  (6 juin 2017) :
 Arundinaria appalachiana Triplett, Weakley &amp; L.G.Clark (2006)
 Arundinaria gigantea (Walter) Muhl. (1813)
 Arundinaria tecta Muhl. (1817)</t>
